--- a/nokids.xlsx
+++ b/nokids.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiksang/PycharmProjects/insta/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiksang/Documents/GitHub/NokidZone/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C4EA33-A5A7-F94C-A5D0-43889E36366A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8543BB9E-A4AD-394C-8FB4-0B33EF82CE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5110,10 +5110,16 @@
   <dimension ref="A1:D1201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="72.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
